--- a/biology/Botanique/Salix_petiolaris/Salix_petiolaris.xlsx
+++ b/biology/Botanique/Salix_petiolaris/Salix_petiolaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix petiolaris, le saule pétiolé (stalked willow, slender willow ou meadow willow en anglais), est une espèce de saule arbustif de la famille des Salicaceae, originaire d'Amérique du Nord.
 </t>
@@ -511,21 +523,23 @@
           <t>Synonymie et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix gracilis Andersson
 Salix gracilis Anderss. var. textoris Fern.
-Salix petiolaris var. angustifolia Anderss.[2]
-Salix petiolaris var. gracilis (Anderss.) Anderss.[3]
-Salix petiolaris var. grisea[4]
-Salix petiolaris var. sericea[5]
+Salix petiolaris var. angustifolia Anderss.
+Salix petiolaris var. gracilis (Anderss.) Anderss.
+Salix petiolaris var. grisea
+Salix petiolaris var. sericea
 Salix petiolaris var. subsericea Anderss.
 Salix sericea var. subsericea (Anderss.) Rydb..
 Salix subsericea (Anderss.) Schneid.
 Salix gracilis Andersson var. rosmarinoides Andersson
 Salix neoforbesii Toepff.
-Salix petiolaris Sm. var. rosmarinoides (Andersson) C.K.Schneid.[6]
-Salix X subsericea (Andersson) C.K.Schneid. X[7].</t>
+Salix petiolaris Sm. var. rosmarinoides (Andersson) C.K.Schneid.
+Salix X subsericea (Andersson) C.K.Schneid. X.</t>
         </is>
       </c>
     </row>
@@ -553,11 +567,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix petiolaris est un  arbrisseau buissonnant de 2 à 4 m qui doit son nom à la longueur du pétiole de ses feuilles, plus importante que pour les autres membres du genre.
-En Nouvelle-Angleterre, l'espèce se rencontre dans le Connecticut, Maine, Massachusetts, New Hampshire, Rhode Island et Vermont[8].
-C'est aussi le saule caractéristique des marécages argileux de l'ouest du Québec où il fleurit dans la première semaine de mai. Il forme généralement des saulaies continues[9].
+En Nouvelle-Angleterre, l'espèce se rencontre dans le Connecticut, Maine, Massachusetts, New Hampshire, Rhode Island et Vermont.
+C'est aussi le saule caractéristique des marécages argileux de l'ouest du Québec où il fleurit dans la première semaine de mai. Il forme généralement des saulaies continues.
 </t>
         </is>
       </c>
